--- a/assignment-2/lj-a2-estimations.xlsx
+++ b/assignment-2/lj-a2-estimations.xlsx
@@ -384,7 +384,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -429,10 +429,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -445,11 +441,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,18 +581,18 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="18.6122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="76.6734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="75.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -659,7 +655,7 @@
       <c r="C4" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="10" t="n">
         <v>30</v>
       </c>
       <c r="E4" s="10" t="n">
@@ -671,7 +667,7 @@
       <c r="G4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="12" t="n">
+      <c r="H4" s="11" t="n">
         <f aca="false">AVERAGEIF(B4:G4,"&gt;0")</f>
         <v>32.3333333333333</v>
       </c>
@@ -686,7 +682,7 @@
       <c r="C5" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="10" t="n">
         <v>15</v>
       </c>
       <c r="E5" s="10" t="n">
@@ -698,7 +694,7 @@
       <c r="G5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="11" t="n">
         <f aca="false">AVERAGEIF(B5:G5,"&gt;0")</f>
         <v>10.6666666666667</v>
       </c>
@@ -707,124 +703,132 @@
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15" t="n">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15" t="n">
+      <c r="D6" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="12" t="n">
+      <c r="G6" s="14"/>
+      <c r="H6" s="11" t="n">
         <f aca="false">AVERAGEIF(B6:G6,"&gt;0")</f>
-        <v>44.5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15" t="n">
+      <c r="B7" s="12"/>
+      <c r="C7" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15" t="n">
+      <c r="E7" s="14"/>
+      <c r="F7" s="13" t="n">
         <v>32</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="12" t="n">
+      <c r="G7" s="14"/>
+      <c r="H7" s="11" t="n">
         <f aca="false">AVERAGEIF(B7:G7,"&gt;0")</f>
-        <v>21</v>
+        <v>19.3333333333333</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="15" t="n">
+      <c r="B8" s="12"/>
+      <c r="C8" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15" t="n">
+      <c r="D8" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13" t="n">
         <v>32</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="12" t="n">
+      <c r="G8" s="14"/>
+      <c r="H8" s="11" t="n">
         <f aca="false">AVERAGEIF(B8:G8,"&gt;0")</f>
-        <v>31</v>
+        <v>30.6666666666667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="15" t="n">
+      <c r="B9" s="12"/>
+      <c r="C9" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15" t="n">
+      <c r="E9" s="14"/>
+      <c r="F9" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="12" t="n">
+      <c r="G9" s="14"/>
+      <c r="H9" s="11" t="n">
         <f aca="false">AVERAGEIF(B9:G9,"&gt;0")</f>
-        <v>35</v>
+        <v>31.6666666666667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15" t="n">
+      <c r="B10" s="12"/>
+      <c r="C10" s="15" t="n">
+        <v>24</v>
+      </c>
+      <c r="D10" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15" t="n">
+      <c r="E10" s="14"/>
+      <c r="F10" s="13" t="n">
         <v>39</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="12" t="n">
+      <c r="G10" s="14"/>
+      <c r="H10" s="11" t="n">
         <f aca="false">AVERAGEIF(B10:G10,"&gt;0")</f>
-        <v>32</v>
+        <v>29.3333333333333</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15" t="n">
+      <c r="B11" s="12"/>
+      <c r="C11" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15" t="n">
+      <c r="E11" s="14"/>
+      <c r="F11" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="12" t="n">
+      <c r="G11" s="14"/>
+      <c r="H11" s="11" t="n">
         <f aca="false">AVERAGEIF(B11:G11,"&gt;0")</f>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H12" s="17" t="n">
+      <c r="H12" s="16" t="n">
         <f aca="false">SUM(H4:H11)</f>
-        <v>222.5</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,536 +992,536 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="198.887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="196.683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="22" t="n">
+      <c r="B5" s="21" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="22" t="n">
+      <c r="B6" s="21" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="22" t="n">
+      <c r="B7" s="21" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="22" t="n">
+      <c r="B8" s="21" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="22" t="n">
+      <c r="B9" s="21" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="21" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="25" t="n">
+      <c r="B11" s="24" t="n">
         <f aca="false">SUM(B5:B10)</f>
         <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="22" t="n">
+      <c r="B15" s="21" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="22" t="n">
+      <c r="B16" s="21" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="25" t="n">
+      <c r="B17" s="24" t="n">
         <f aca="false">SUM(B15:B16)</f>
         <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="22" t="n">
+      <c r="B21" s="21" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="22" t="n">
+      <c r="B22" s="21" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="22" t="n">
+      <c r="B23" s="21" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="22" t="n">
+      <c r="B24" s="21" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="22" t="n">
+      <c r="B25" s="21" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="25" t="n">
+      <c r="B26" s="24" t="n">
         <f aca="false">SUM(B21:B25)</f>
         <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9"/>
-      <c r="B27" s="22"/>
+      <c r="B27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="22" t="n">
+      <c r="B30" s="21" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="21" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="22" t="n">
+      <c r="B32" s="21" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="22" t="n">
+      <c r="B33" s="21" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="22" t="n">
+      <c r="B34" s="21" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="22" t="n">
+      <c r="B35" s="21" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="25" t="n">
+      <c r="B36" s="24" t="n">
         <f aca="false">SUM(B30:B35)</f>
         <v>32</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9"/>
-      <c r="B37" s="22"/>
+      <c r="B37" s="21"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="22"/>
+      <c r="B38" s="21"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="22"/>
+      <c r="B39" s="21"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="22" t="n">
+      <c r="B40" s="21" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="22" t="n">
+      <c r="B41" s="21" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="22" t="n">
+      <c r="B42" s="21" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="22" t="n">
+      <c r="B43" s="21" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="22" t="n">
+      <c r="B44" s="21" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="25" t="n">
+      <c r="B45" s="24" t="n">
         <f aca="false">SUM(B40:B44)</f>
         <v>32</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9"/>
-      <c r="B46" s="22"/>
+      <c r="B46" s="21"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="21"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="22"/>
+      <c r="B48" s="21"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="22" t="n">
+      <c r="B49" s="21" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="22" t="n">
+      <c r="B50" s="21" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="22" t="n">
+      <c r="B51" s="21" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="22" t="n">
+      <c r="B52" s="21" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="22" t="n">
+      <c r="B53" s="21" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="25" t="n">
+      <c r="B54" s="24" t="n">
         <f aca="false">SUM(B49:B53)</f>
         <v>40</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9"/>
-      <c r="B55" s="22"/>
+      <c r="B55" s="21"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="22"/>
+      <c r="B56" s="21"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="21"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="22" t="n">
+      <c r="B58" s="21" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="22" t="n">
+      <c r="B59" s="21" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="22" t="n">
+      <c r="B60" s="21" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="22" t="n">
+      <c r="B61" s="21" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="22" t="n">
+      <c r="B62" s="21" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="22" t="n">
+      <c r="B63" s="21" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="25" t="n">
+      <c r="B64" s="24" t="n">
         <f aca="false">SUM(B58:B63)</f>
         <v>39</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9"/>
-      <c r="B65" s="22"/>
+      <c r="B65" s="21"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="22"/>
+      <c r="B66" s="21"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="22"/>
+      <c r="B67" s="21"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B68" s="22" t="n">
+      <c r="B68" s="21" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="22" t="n">
+      <c r="B69" s="21" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="22" t="n">
+      <c r="B70" s="21" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="29" t="n">
+      <c r="B71" s="28" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="29" t="n">
+      <c r="B72" s="28" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="25" t="n">
+      <c r="B73" s="24" t="n">
         <f aca="false">SUM(B68:B72)</f>
         <v>22</v>
       </c>

--- a/assignment-2/lj-a2-estimations.xlsx
+++ b/assignment-2/lj-a2-estimations.xlsx
@@ -581,7 +581,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -810,7 +810,7 @@
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" s="13" t="n">
         <v>10</v>
@@ -822,13 +822,13 @@
       <c r="G11" s="14"/>
       <c r="H11" s="11" t="n">
         <f aca="false">AVERAGEIF(B11:G11,"&gt;0")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H12" s="16" t="n">
         <f aca="false">SUM(H4:H11)</f>
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/assignment-2/lj-a2-estimations.xlsx
+++ b/assignment-2/lj-a2-estimations.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PhoebeDetering/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyrone\docs\assignment-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14520" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation Template" sheetId="1" r:id="rId1"/>
     <sheet name="Justifications" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterateDelta="1E-4" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -368,21 +366,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,7 +389,6 @@
     <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -433,6 +417,19 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,6 +507,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -781,387 +781,399 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="8">
         <v>0</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="8">
         <v>24</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="8">
         <v>30</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="8">
+        <v>30</v>
+      </c>
+      <c r="F4" s="8">
+        <v>43</v>
+      </c>
+      <c r="G4" s="8">
+        <v>25</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H11" si="0">AVERAGEIF(B4:G4,"&gt;0")</f>
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="13">
-        <v>43</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="C5" s="8">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8">
+        <v>7</v>
+      </c>
+      <c r="G5" s="8">
+        <v>10</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
+        <v>40</v>
+      </c>
+      <c r="D6" s="11">
+        <v>40</v>
+      </c>
+      <c r="E6" s="25">
+        <v>40</v>
+      </c>
+      <c r="F6" s="11">
+        <v>49</v>
+      </c>
+      <c r="G6" s="24">
+        <v>35</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="12">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11">
+        <v>10</v>
+      </c>
+      <c r="E7" s="25">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11">
+        <v>32</v>
+      </c>
+      <c r="G7" s="25">
+        <v>15</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="12">
+        <v>30</v>
+      </c>
+      <c r="D8" s="11">
+        <v>30</v>
+      </c>
+      <c r="E8" s="25">
+        <v>32</v>
+      </c>
+      <c r="F8" s="11">
+        <v>32</v>
+      </c>
+      <c r="G8" s="25">
+        <v>35</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="12">
         <v>25</v>
       </c>
-      <c r="H4" s="14">
-        <f t="shared" ref="H4:H11" si="0">AVERAGEIF(B4:G4,"&gt;0")</f>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="D9" s="11">
+        <v>30</v>
+      </c>
+      <c r="E9" s="25">
+        <v>30</v>
+      </c>
+      <c r="F9" s="11">
+        <v>40</v>
+      </c>
+      <c r="G9" s="25">
+        <v>30</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="12">
+        <v>24</v>
+      </c>
+      <c r="D10" s="11">
+        <v>25</v>
+      </c>
+      <c r="E10" s="25">
+        <v>24</v>
+      </c>
+      <c r="F10" s="11">
+        <v>39</v>
+      </c>
+      <c r="G10" s="25">
+        <v>20</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
         <v>10</v>
       </c>
-      <c r="D5" s="13">
-        <v>15</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>7</v>
-      </c>
-      <c r="G5" s="13">
-        <v>10</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>22</v>
+      </c>
+      <c r="G11" s="25">
+        <v>5</v>
+      </c>
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16">
-        <v>40</v>
-      </c>
-      <c r="D6" s="16">
-        <v>40</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16">
-        <v>49</v>
-      </c>
-      <c r="G6" s="30">
-        <v>35</v>
-      </c>
-      <c r="H6" s="14">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="18">
-        <v>16</v>
-      </c>
-      <c r="D7" s="16">
-        <v>10</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16">
-        <v>32</v>
-      </c>
-      <c r="G7" s="31">
-        <v>15</v>
-      </c>
-      <c r="H7" s="14">
-        <f t="shared" si="0"/>
-        <v>18.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="18">
-        <v>30</v>
-      </c>
-      <c r="D8" s="16">
-        <v>30</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16">
-        <v>32</v>
-      </c>
-      <c r="G8" s="31">
-        <v>35</v>
-      </c>
-      <c r="H8" s="14">
-        <f t="shared" si="0"/>
-        <v>31.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="18">
-        <v>25</v>
-      </c>
-      <c r="D9" s="16">
-        <v>30</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16">
-        <v>40</v>
-      </c>
-      <c r="G9" s="31">
-        <v>30</v>
-      </c>
-      <c r="H9" s="14">
-        <f t="shared" si="0"/>
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="18">
-        <v>24</v>
-      </c>
-      <c r="D10" s="16">
-        <v>25</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16">
-        <v>39</v>
-      </c>
-      <c r="G10" s="31">
-        <v>20</v>
-      </c>
-      <c r="H10" s="14">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="18">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16">
-        <v>10</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16">
-        <v>22</v>
-      </c>
-      <c r="G11" s="31">
-        <v>5</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H12" s="19">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="13">
         <f>SUM(H4:H11)</f>
-        <v>199.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+        <v>196.00000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="12" t="s">
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1189,535 +1201,535 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="20"/>
+    <col min="1" max="1" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" ht="26" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="30"/>
+    </row>
+    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="22"/>
-    </row>
-    <row r="4" spans="1:2" ht="247" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="22"/>
-    </row>
-    <row r="5" spans="1:2" ht="52" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="s">
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="16">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="78" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="65" x14ac:dyDescent="0.15">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="65" x14ac:dyDescent="0.15">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="52" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="65" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="19">
         <f>SUM(B5:B10)</f>
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="22"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="22"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="22"/>
-    </row>
-    <row r="15" spans="1:2" ht="52" x14ac:dyDescent="0.15">
-      <c r="A15" s="23" t="s">
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="19">
         <f>SUM(B15:B16)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="28" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="22"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="28" t="s">
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="22"/>
-    </row>
-    <row r="21" spans="1:2" ht="52" x14ac:dyDescent="0.15">
-      <c r="A21" s="23" t="s">
+      <c r="B20" s="16"/>
+    </row>
+    <row r="21" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="16">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="52" x14ac:dyDescent="0.15">
-      <c r="A24" s="23" t="s">
+    <row r="24" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="16">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="65" x14ac:dyDescent="0.15">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="19">
         <f>SUM(B21:B25)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="22"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="16"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="22"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
+      <c r="B28" s="16"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="22"/>
-    </row>
-    <row r="30" spans="1:2" ht="52" x14ac:dyDescent="0.15">
-      <c r="A30" s="23" t="s">
+      <c r="B29" s="16"/>
+    </row>
+    <row r="30" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="16">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="78" x14ac:dyDescent="0.15">
-      <c r="A31" s="23" t="s">
+    <row r="31" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="234" x14ac:dyDescent="0.15">
-      <c r="A32" s="23" t="s">
+    <row r="32" spans="1:2" ht="318.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="65" x14ac:dyDescent="0.15">
-      <c r="A33" s="23" t="s">
+    <row r="33" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="52" x14ac:dyDescent="0.15">
-      <c r="A34" s="23" t="s">
+    <row r="34" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="65" x14ac:dyDescent="0.15">
-      <c r="A35" s="23" t="s">
+    <row r="35" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="27" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="19">
         <f>SUM(B30:B35)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
-      <c r="B37" s="22"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="28" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="16"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="22"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="12" t="s">
+      <c r="B38" s="16"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="22"/>
-    </row>
-    <row r="40" spans="1:2" ht="52" x14ac:dyDescent="0.15">
-      <c r="A40" s="23" t="s">
+      <c r="B39" s="16"/>
+    </row>
+    <row r="40" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="16">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="65" x14ac:dyDescent="0.15">
-      <c r="A41" s="23" t="s">
+    <row r="41" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="65" x14ac:dyDescent="0.15">
-      <c r="A42" s="23" t="s">
+    <row r="42" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="52" x14ac:dyDescent="0.15">
-      <c r="A43" s="23" t="s">
+    <row r="43" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="65" x14ac:dyDescent="0.15">
-      <c r="A44" s="23" t="s">
+    <row r="44" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="19">
         <f>SUM(B40:B44)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="12"/>
-      <c r="B46" s="22"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="12" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="16"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="22"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="12" t="s">
+      <c r="B47" s="16"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="22"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="26" t="s">
+      <c r="B48" s="16"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="26" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="16">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="26" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="16">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="26" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="26" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="27" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="25">
+      <c r="B54" s="19">
         <f>SUM(B49:B53)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="12"/>
-      <c r="B55" s="22"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="12" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
+      <c r="B55" s="16"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="22"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="12" t="s">
+      <c r="B56" s="16"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="22"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="26" t="s">
+      <c r="B57" s="16"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="22">
+      <c r="B58" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="26" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="22">
+      <c r="B59" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="26" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B60" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="26" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="22">
+      <c r="B61" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="26" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="22">
+      <c r="B62" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="26" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="22">
+      <c r="B63" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="27" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="25">
+      <c r="B64" s="19">
         <f>SUM(B58:B63)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="12"/>
-      <c r="B65" s="22"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="12" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="7"/>
+      <c r="B65" s="16"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="22"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="12" t="s">
+      <c r="B66" s="16"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="22"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="26" t="s">
+      <c r="B67" s="16"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B68" s="22">
+      <c r="B68" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="26" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="22">
+      <c r="B69" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="130" x14ac:dyDescent="0.15">
-      <c r="A70" s="23" t="s">
+    <row r="70" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="22">
+      <c r="B70" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="26" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="29">
+      <c r="B71" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="26" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="29">
+      <c r="B72" s="23">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="24" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="25">
+      <c r="B73" s="19">
         <f>SUM(B68:B72)</f>
         <v>22</v>
       </c>

--- a/assignment-2/lj-a2-estimations.xlsx
+++ b/assignment-2/lj-a2-estimations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation Template" sheetId="1" state="visible" r:id="rId2"/>
@@ -384,7 +384,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -433,11 +433,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -581,19 +577,18 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.18877551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.71938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.015306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.4948979591837"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="129.841836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.60204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.60204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.78061224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1989795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="128.061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.60204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -651,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10" t="n">
         <v>24</v>
@@ -670,7 +665,7 @@
       </c>
       <c r="H4" s="11" t="n">
         <f aca="false">AVERAGEIF(B4:G4,"&gt;0")</f>
-        <v>30.4</v>
+        <v>28.3333333333333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -678,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="n">
         <v>10</v>
@@ -697,163 +692,175 @@
       </c>
       <c r="H5" s="11" t="n">
         <f aca="false">AVERAGEIF(B5:G5,"&gt;0")</f>
-        <v>10.8</v>
+        <v>10.3333333333333</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12" t="n">
+        <v>45</v>
+      </c>
       <c r="C6" s="13" t="n">
         <v>40</v>
       </c>
       <c r="D6" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="13" t="n">
         <v>40</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="G6" s="15" t="n">
+      <c r="G6" s="14" t="n">
         <v>35</v>
       </c>
       <c r="H6" s="11" t="n">
         <f aca="false">AVERAGEIF(B6:G6,"&gt;0")</f>
-        <v>40.8</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="12" t="n">
+        <v>15</v>
+      </c>
       <c r="C7" s="13" t="n">
         <v>16</v>
       </c>
       <c r="D7" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="13" t="n">
         <v>12</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>32</v>
       </c>
-      <c r="G7" s="14" t="n">
+      <c r="G7" s="13" t="n">
         <v>15</v>
       </c>
       <c r="H7" s="11" t="n">
         <f aca="false">AVERAGEIF(B7:G7,"&gt;0")</f>
-        <v>17</v>
+        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="12" t="n">
+        <v>25</v>
+      </c>
       <c r="C8" s="13" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="13" t="n">
         <v>32</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>32</v>
       </c>
-      <c r="G8" s="14" t="n">
+      <c r="G8" s="13" t="n">
         <v>35</v>
       </c>
       <c r="H8" s="11" t="n">
         <f aca="false">AVERAGEIF(B8:G8,"&gt;0")</f>
-        <v>31.8</v>
+        <v>30.6666666666667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="12" t="n">
+        <v>32</v>
+      </c>
       <c r="C9" s="13" t="n">
         <v>25</v>
       </c>
       <c r="D9" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="13" t="n">
         <v>30</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="G9" s="14" t="n">
+      <c r="G9" s="13" t="n">
         <v>30</v>
       </c>
       <c r="H9" s="11" t="n">
         <f aca="false">AVERAGEIF(B9:G9,"&gt;0")</f>
-        <v>31</v>
+        <v>31.1666666666667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="12" t="n">
+        <v>28</v>
+      </c>
       <c r="C10" s="13" t="n">
         <v>24</v>
       </c>
       <c r="D10" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="13" t="n">
         <v>24</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>39</v>
       </c>
-      <c r="G10" s="14" t="n">
+      <c r="G10" s="13" t="n">
         <v>20</v>
       </c>
       <c r="H10" s="11" t="n">
         <f aca="false">AVERAGEIF(B10:G10,"&gt;0")</f>
-        <v>26.4</v>
+        <v>26.6666666666667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="12" t="n">
+        <v>5</v>
+      </c>
       <c r="C11" s="13" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="G11" s="14" t="n">
+      <c r="G11" s="13" t="n">
         <v>5</v>
       </c>
       <c r="H11" s="11" t="n">
         <f aca="false">AVERAGEIF(B11:G11,"&gt;0")</f>
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H12" s="16" t="n">
+      <c r="H12" s="15" t="n">
         <f aca="false">SUM(H4:H11)</f>
-        <v>193.8</v>
+        <v>190.833333333333</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,540 +1018,540 @@
   </sheetPr>
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="206.158163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="203.341836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.60204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="20" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="20" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="20" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="24" t="n">
+      <c r="B11" s="23" t="n">
         <f aca="false">SUM(B5:B10)</f>
         <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="21" t="n">
+      <c r="B15" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="21" t="n">
+      <c r="B16" s="20" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="24" t="n">
+      <c r="B17" s="23" t="n">
         <f aca="false">SUM(B15:B16)</f>
         <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="20"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="21" t="n">
+      <c r="B21" s="20" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="21" t="n">
+      <c r="B22" s="20" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="21" t="n">
+      <c r="B23" s="20" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="21" t="n">
+      <c r="B24" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="21" t="n">
+      <c r="B25" s="20" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="24" t="n">
+      <c r="B26" s="23" t="n">
         <f aca="false">SUM(B21:B25)</f>
         <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="20"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="20"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="21" t="n">
+      <c r="B30" s="20" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="21" t="n">
+      <c r="B31" s="20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="21" t="n">
+      <c r="B32" s="20" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="21" t="n">
+      <c r="B33" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="21" t="n">
+      <c r="B34" s="20" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="21" t="n">
+      <c r="B35" s="20" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="24" t="n">
+      <c r="B36" s="23" t="n">
         <f aca="false">SUM(B30:B35)</f>
         <v>32</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9"/>
-      <c r="B37" s="21"/>
+      <c r="B37" s="20"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="20"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="21" t="n">
+      <c r="B40" s="20" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="21" t="n">
+      <c r="B41" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="21" t="n">
+      <c r="B42" s="20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="21" t="n">
+      <c r="B43" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="21" t="n">
+      <c r="B44" s="20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="24" t="n">
+      <c r="B45" s="23" t="n">
         <f aca="false">SUM(B40:B44)</f>
         <v>32</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9"/>
-      <c r="B46" s="21"/>
+      <c r="B46" s="20"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="21"/>
+      <c r="B47" s="20"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="21"/>
+      <c r="B48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="21" t="n">
+      <c r="B49" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="21" t="n">
+      <c r="B50" s="20" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="21" t="n">
+      <c r="B51" s="20" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="21" t="n">
+      <c r="B52" s="20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="21" t="n">
+      <c r="B53" s="20" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="24" t="n">
+      <c r="B54" s="23" t="n">
         <f aca="false">SUM(B49:B53)</f>
         <v>40</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9"/>
-      <c r="B55" s="21"/>
+      <c r="B55" s="20"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="21"/>
+      <c r="B56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="21"/>
+      <c r="B57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="21" t="n">
+      <c r="B58" s="20" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="21" t="n">
+      <c r="B59" s="20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="21" t="n">
+      <c r="B60" s="20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="21" t="n">
+      <c r="B61" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="21" t="n">
+      <c r="B62" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="21" t="n">
+      <c r="B63" s="20" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="24" t="n">
+      <c r="B64" s="23" t="n">
         <f aca="false">SUM(B58:B63)</f>
         <v>39</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9"/>
-      <c r="B65" s="21"/>
+      <c r="B65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="21"/>
+      <c r="B66" s="20"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="21"/>
+      <c r="B67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B68" s="21" t="n">
+      <c r="B68" s="20" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="21" t="n">
+      <c r="B69" s="20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="21" t="n">
+      <c r="B70" s="20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="28" t="n">
+      <c r="B71" s="27" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="28" t="n">
+      <c r="B72" s="27" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="24" t="n">
+      <c r="B73" s="23" t="n">
         <f aca="false">SUM(B68:B72)</f>
         <v>11</v>
       </c>
